--- a/biology/Médecine/1401_en_santé_et_médecine/1401_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1401_en_santé_et_médecine/1401_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1401_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1401_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1401 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1401_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1401_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Philippe le Hardi, duc de Bourgogne, décide qu'il faut payer pour être reçue béguine à l'hôpital Sainte-Élisabeth de Lille[2].
-Albert de Lestega (fl. 1401-1412), médecin de Guillaume de Wittelsbach, futur comte de Hainaut, assiste Marguerite de Bourgogne, sa femme, pour la naissance de leur fille Jacqueline, au château du Quesnoy[3].
-1400[4]-1401 : fondation par Martin Ier, roi d'Aragon, du collège royal de médecine (es) de Barcelone (Colegio de Médicos de Barcelona[5]).
-1401-1407 : Han Thuong, empereur du Vietnam, crée un institut de médecine, et un service de santé dirigé par un médecin attaché à la personne du roi et par un officier chargé de la santé publique[6].
-1401-1414 : construction de l'Hôpital de la Sainte-Croix (Hospital de la Santa Creu) de Barcelone, fondé pour réunir les six hôpitaux de la ville en un seul établissement[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Philippe le Hardi, duc de Bourgogne, décide qu'il faut payer pour être reçue béguine à l'hôpital Sainte-Élisabeth de Lille.
+Albert de Lestega (fl. 1401-1412), médecin de Guillaume de Wittelsbach, futur comte de Hainaut, assiste Marguerite de Bourgogne, sa femme, pour la naissance de leur fille Jacqueline, au château du Quesnoy.
+1400-1401 : fondation par Martin Ier, roi d'Aragon, du collège royal de médecine (es) de Barcelone (Colegio de Médicos de Barcelona).
+1401-1407 : Han Thuong, empereur du Vietnam, crée un institut de médecine, et un service de santé dirigé par un médecin attaché à la personne du roi et par un officier chargé de la santé publique.
+1401-1414 : construction de l'Hôpital de la Sainte-Croix (Hospital de la Santa Creu) de Barcelone, fondé pour réunir les six hôpitaux de la ville en un seul établissement.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1401_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1401_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Velasco de Taranta (pt) († ap. 1426) écrit pour ses protecteurs, les comtes de Foix, un Tractatus de epidemia et peste qui sera imprimé pour la première fois à Turin en 1473[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Velasco de Taranta (pt) († ap. 1426) écrit pour ses protecteurs, les comtes de Foix, un Tractatus de epidemia et peste qui sera imprimé pour la première fois à Turin en 1473.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1401_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1401_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,14 +591,16 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1391-1401 : fl. Nicolas Burrel, médecin juré de la ville de Malines[9].
-1401-1412 : fl. Albert de Lestega, médecin de Guillaume de Bavière, comte d'Ostrevent puis de Hainaut[3].
-1401-1416 : fl. Durand Comitis, « maître ès arts et licencié en médecine, témoin de l'élection d'un abbé de La Grasse (1416[3]) ».
-1401-1417 : fl. Benoît Canet, chirurgien juif d'Arles, qui soigne Louis II, roi de Naples, en 1417[3], et Jean de Vouziers, chirurgien juré de la ville de Reims[9].
-1401-1429 : fl. Guillaume, médecin pensionnaire de la ville de Cambrai[3].
-1401-1432 : fl. Jean Basin, professeur de médecine à Paris[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1391-1401 : fl. Nicolas Burrel, médecin juré de la ville de Malines.
+1401-1412 : fl. Albert de Lestega, médecin de Guillaume de Bavière, comte d'Ostrevent puis de Hainaut.
+1401-1416 : fl. Durand Comitis, « maître ès arts et licencié en médecine, témoin de l'élection d'un abbé de La Grasse (1416) ».
+1401-1417 : fl. Benoît Canet, chirurgien juif d'Arles, qui soigne Louis II, roi de Naples, en 1417, et Jean de Vouziers, chirurgien juré de la ville de Reims.
+1401-1429 : fl. Guillaume, médecin pensionnaire de la ville de Cambrai.
+1401-1432 : fl. Jean Basin, professeur de médecine à Paris.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1401_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1401_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1400 ou 1401 : Henri Arnault de Zwolle (mort en 1466), médecin, astronome et organiste de Philippe le Bon, duc de Bourgogne[10],[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1400 ou 1401 : Henri Arnault de Zwolle (mort en 1466), médecin, astronome et organiste de Philippe le Bon, duc de Bourgogne,.</t>
         </is>
       </c>
     </row>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1401_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1401_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,11 +660,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dominicus de Jordano[12] et Chiryati Perrinus (nés à des dates inconnues), respectivement médecin dans la Vallée d'Aoste et apothicaire à Aoste même[12].
-Jean de Heusden (né à une date inconnue), prévôt du chapitre de Notre-Dame de Bruges, médecin de Louis de Male, comte de Flandre[13].
-Pietro da Tossignano (né en 1364[14]), professeur de médecine à Padoue et Bologne, auteur de très nombreux ouvrages largement diffusés, parmi lesquels il faut noter un Traité de la peste, peut-être apocryphe, et un commentaire du Livre pour Mansour de Rhazès[15].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dominicus de Jordano et Chiryati Perrinus (nés à des dates inconnues), respectivement médecin dans la Vallée d'Aoste et apothicaire à Aoste même.
+Jean de Heusden (né à une date inconnue), prévôt du chapitre de Notre-Dame de Bruges, médecin de Louis de Male, comte de Flandre.
+Pietro da Tossignano (né en 1364), professeur de médecine à Padoue et Bologne, auteur de très nombreux ouvrages largement diffusés, parmi lesquels il faut noter un Traité de la peste, peut-être apocryphe, et un commentaire du Livre pour Mansour de Rhazès.</t>
         </is>
       </c>
     </row>
